--- a/1.train_results/MedSAM3D/medsam3d结果.xlsx
+++ b/1.train_results/MedSAM3D/medsam3d结果.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\3D_segmentation\3D-DRSAM\3D-DRSAM-Github\1.train_results\MedSAM3D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CE0E44-B237-4466-A08D-55ED94864F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A769449B-BFBB-4FDE-96F5-A6D13578DBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="611SamMED3d" sheetId="1" r:id="rId1"/>
     <sheet name="611DRSam" sheetId="2" r:id="rId2"/>
+    <sheet name="612ASammed3d" sheetId="3" r:id="rId3"/>
+    <sheet name="612DrSAM" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>5e-6 steplr-10）</t>
   </si>
@@ -104,6 +106,112 @@
   </si>
   <si>
     <t>mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parser.add_argument('--step_size', type=list, default=[100, 150, 200])</t>
+  </si>
+  <si>
+    <t>parser.add_argument('--gamma', type=float, default=0.1)</t>
+  </si>
+  <si>
+    <t>parser.add_argument('--num_epochs', type=int, default=1000)</t>
+  </si>
+  <si>
+    <t>parser.add_argument('--img_size', type=int, default=128)</t>
+  </si>
+  <si>
+    <t>parser.add_argument('--batch_size', type=int, default=1)</t>
+  </si>
+  <si>
+    <t>parser.add_argument('--accumulation_steps', type=int, default=10)</t>
+  </si>
+  <si>
+    <t>parser.add_argument('--lr', type=float, default=1e-4)</t>
+  </si>
+  <si>
+    <t>目前较好的参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPOCH: 219, Loss: -259.61780655022824</t>
+  </si>
+  <si>
+    <t>EPOCH: 219, Dice: 0.4308413836089047</t>
+  </si>
+  <si>
+    <t>EPOCH: 219, Iou: 0.277419900803855</t>
+  </si>
+  <si>
+    <t>考虑到调参用的少量数据，学习参数分布后用全部数据进行测试。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 原因是训练数据过少导致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.学习率过小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证结果却是过拟合，可能的原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试中解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRSAM训练结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练过程中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean DICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean IOU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证过程中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推论时 指标全0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要调整输出格式适应指标计算方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这时输出的标签是下图所示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICE突破0.54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOU达到0.37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推论结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下是利用全部数据训练，拿验证集进行推论的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果显示仍是过拟合严重，模型效果不佳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1113,6 +1221,734 @@
         <a:xfrm>
           <a:off x="714375" y="304800"/>
           <a:ext cx="10352381" cy="3609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71808317-1B54-8BD1-78F6-4DF9D0358372}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3314700" y="657225"/>
+          <a:ext cx="2400000" cy="1800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EBE5DA3-082D-E02F-D6CC-A9C1F5948D47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5667375" y="685800"/>
+          <a:ext cx="2400000" cy="1800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>437850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CACBE5DC-FB3F-2C73-57F6-5CFF39E5679D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="933450" y="657225"/>
+          <a:ext cx="2400000" cy="1800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>176985</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>121650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4704F8B-AE67-DFBB-86C4-3F20AD875619}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7972425" y="495300"/>
+          <a:ext cx="1805760" cy="2160000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>107705</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104042</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>297905</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>94292</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45221D22-FFBD-8A64-A112-481A24E862E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2320436" y="5049715"/>
+          <a:ext cx="2402931" cy="1821981"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>16119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666449</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>6369</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0DAFD47-B58D-836D-48D1-132AB305FA2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4749311" y="4961792"/>
+          <a:ext cx="2408792" cy="1821981"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>674808</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>10991</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1020339</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1241</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A508D39-176B-20B5-0A53-6307B6116215}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7166462" y="4956664"/>
+          <a:ext cx="2411723" cy="1821981"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>624184</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>131886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A83EFF4-68E7-E69D-2830-DED403146B32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2212731" y="7693270"/>
+          <a:ext cx="3525645" cy="2696308"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>299715</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>131886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F70A04B-996B-F658-1247-53A5176A2C7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5802923" y="7693270"/>
+          <a:ext cx="2365907" cy="2696308"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>141515</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10EA3CC9-CFAF-071F-7962-287C0A216A7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="838200"/>
+          <a:ext cx="10876190" cy="904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>112803</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123444</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E27B43D-F62A-444B-211A-54A53C73F797}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="2143125"/>
+          <a:ext cx="11971428" cy="3047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>75998</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>37718</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A30EDC3-0A0D-4CAE-5D2F-D708FBBEB485}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1571625" y="5486400"/>
+          <a:ext cx="1619048" cy="3057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>8363</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>161045</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16BDCFCF-50CB-CA3B-E039-C688DD63EDE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="8867775"/>
+          <a:ext cx="9295238" cy="7038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>93589</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED5A45B0-C336-E181-ACB5-F68BB1D2E697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685801" y="16106776"/>
+          <a:ext cx="7162799" cy="5160888"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1389,7 +2225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A94" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N102" sqref="N102"/>
     </sheetView>
   </sheetViews>
@@ -1548,4 +2384,204 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F4B223-936E-40BE-A72E-98594FE17EA4}">
+  <dimension ref="A15:I42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCD5E49-DEEE-4BA1-A7EE-14E9CCE7A542}">
+  <dimension ref="B2:F49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>0.59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <v>0.61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>